--- a/mAuditoriaPV/formatos/CAJAS UNICAS PETACA.xlsx
+++ b/mAuditoriaPV/formatos/CAJAS UNICAS PETACA.xlsx
@@ -1,39 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>7501021166186</t>
+  </si>
+  <si>
+    <t>7501021166544</t>
+  </si>
+  <si>
+    <t>7344520000311</t>
+  </si>
+  <si>
+    <t>7706800643258</t>
+  </si>
+  <si>
+    <t>735257006368</t>
+  </si>
+  <si>
+    <t>044774040008</t>
+  </si>
+  <si>
+    <t>7501045401416</t>
+  </si>
+  <si>
+    <t>731082001004</t>
+  </si>
+  <si>
+    <t>7503016372282</t>
+  </si>
+  <si>
+    <t>7501003309976</t>
+  </si>
+  <si>
+    <t>7344520000168</t>
+  </si>
+  <si>
+    <t>7344520000045</t>
+  </si>
+  <si>
+    <t>7501011320178</t>
+  </si>
+  <si>
+    <t>7501059297586</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -47,46 +81,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -94,43 +98,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,7 +172,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -243,7 +224,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -448,61 +429,102 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="48.28515625" style="1" customWidth="1"/>
-    <col min="3" max="9" width="13.28515625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="16.42578125" style="3" customWidth="1"/>
+    <col min="2" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5">
-        <v>7501021166186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>7501021166544</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>7501058752888</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>7503004095469</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K7" s="2"/>
+    <row r="1" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1"/>
+    </row>
+    <row r="2" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2"/>
+    </row>
+    <row r="3" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3"/>
+    </row>
+    <row r="4" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7"/>
+    </row>
+    <row r="8" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8"/>
+    </row>
+    <row r="9" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11"/>
+    </row>
+    <row r="12" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup scale="79" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>